--- a/data/trans_bre/P57_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_R2-Habitat-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>-3.548207190674413</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-2.027457636964463</v>
+        <v>-2.027457636964453</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>-0.1185182064378127</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.0482524104182131</v>
+        <v>-0.04825241041821286</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.529119183084886</v>
+        <v>-8.198836383089256</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.255778433740567</v>
+        <v>-7.306922087485587</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.2654901348972997</v>
+        <v>-0.256308380147696</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.1587592534868718</v>
+        <v>-0.1611031409697594</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.036872183786629</v>
+        <v>1.495745787004094</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.850965767600306</v>
+        <v>3.325114110525223</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.03818638047750667</v>
+        <v>0.05371900373621909</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.07349598180485467</v>
+        <v>0.08543684084906729</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>-3.009930820034445</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-7.324340609074392</v>
+        <v>-7.324340609074404</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.1024684258612651</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.1494948823859238</v>
+        <v>-0.149494882385924</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-7.122368706696351</v>
+        <v>-7.06917980752555</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-11.68503750505293</v>
+        <v>-11.86974655856572</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2246208751590241</v>
+        <v>-0.22663553480465</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2268710061425658</v>
+        <v>-0.230566586122812</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.064143297324839</v>
+        <v>0.9703057817671177</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-2.819246329058905</v>
+        <v>-2.758798389726872</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.04412184535037413</v>
+        <v>0.03232059346857737</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.05959698264013815</v>
+        <v>-0.05982348797480681</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.091469692418009</v>
+        <v>-9.57795033341843</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.963790417795639</v>
+        <v>-10.36484870947787</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.2740733288770643</v>
+        <v>-0.2837778765141348</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1765182745796644</v>
+        <v>-0.182907612697048</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2854246523505677</v>
+        <v>-0.3579615120991398</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7391339075735097</v>
+        <v>0.7517018220504401</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.01313087461429822</v>
+        <v>-0.009765508963013998</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.01595525573527369</v>
+        <v>0.01460673654975674</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-5.003787731381109</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-4.876034531287587</v>
+        <v>-4.876034531287576</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.1568047465384125</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.1191044361245166</v>
+        <v>-0.1191044361245163</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.389923858110707</v>
+        <v>-8.907582898431393</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-9.119636113390818</v>
+        <v>-9.419603733076187</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2761728191253939</v>
+        <v>-0.2690893507333055</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2071667640640173</v>
+        <v>-0.2147609133342203</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-1.28275236934733</v>
+        <v>-1.147863467628662</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.469487505048551</v>
+        <v>-0.6115740121229134</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.04032638088764769</v>
+        <v>-0.03765106691618052</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.01270089767864495</v>
+        <v>-0.01035576212680838</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>-4.030700135592907</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-5.169056100473258</v>
+        <v>-5.169056100473246</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>-0.1327886165698864</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>-0.1113835061096278</v>
+        <v>-0.1113835061096276</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.244448735647133</v>
+        <v>-6.326357034639615</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.466309657557109</v>
+        <v>-7.571650717482924</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.1977392612850854</v>
+        <v>-0.1996711184983262</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1553253141168881</v>
+        <v>-0.1585434651598945</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.66974437097797</v>
+        <v>-1.802578041685608</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.697910247774589</v>
+        <v>-2.797151560489563</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.05473741067361538</v>
+        <v>-0.06138283685088858</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.05990935484902529</v>
+        <v>-0.06262575578845561</v>
       </c>
     </row>
     <row r="19">
